--- a/reports/Angola_exports_partners_HS-AG6-2007-2022.xlsx
+++ b/reports/Angola_exports_partners_HS-AG6-2007-2022.xlsx
@@ -310,13 +310,13 @@
     <t>Dem. Rep. of the Congo</t>
   </si>
   <si>
-    <t>Marshall Isds</t>
-  </si>
-  <si>
     <t>Pakistan</t>
   </si>
   <si>
     <t>Dominican Rep.</t>
+  </si>
+  <si>
+    <t>Marshall Isds</t>
   </si>
   <si>
     <t>Mauritania</t>
@@ -12268,25 +12268,25 @@
         <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D400" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E400" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F400">
-        <v>59315054.692</v>
+        <v>82147.266</v>
       </c>
       <c r="G400">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H400">
-        <v>279113670.574</v>
+        <v>1628093.048</v>
       </c>
       <c r="I400">
-        <v>0.212512180324303</v>
+        <v>0.05045612479023374</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -12297,25 +12297,25 @@
         <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D401" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E401" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F401">
-        <v>61287648.919</v>
+        <v>24569.373</v>
       </c>
       <c r="G401">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H401">
-        <v>61287648.919</v>
+        <v>1628093.048</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>0.01509088994033958</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -12326,25 +12326,25 @@
         <v>9</v>
       </c>
       <c r="C402" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D402" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E402" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F402">
-        <v>90359687.90000001</v>
+        <v>267354.818</v>
       </c>
       <c r="G402">
         <v>2</v>
       </c>
       <c r="H402">
-        <v>378659045.398</v>
+        <v>1628093.048</v>
       </c>
       <c r="I402">
-        <v>0.2386307391786323</v>
+        <v>0.1642134755924589</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -12355,25 +12355,25 @@
         <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D403" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E403" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F403">
-        <v>19603080292.375</v>
+        <v>1074542.528</v>
       </c>
       <c r="G403">
         <v>1</v>
       </c>
       <c r="H403">
-        <v>27481273609.394</v>
+        <v>1628093.048</v>
       </c>
       <c r="I403">
-        <v>0.7133250289271172</v>
+        <v>0.6600006856610569</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -12384,25 +12384,25 @@
         <v>9</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D404" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E404" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F404">
-        <v>313499621.277</v>
+        <v>167201.27</v>
       </c>
       <c r="G404">
         <v>3</v>
       </c>
       <c r="H404">
-        <v>3050915978.135</v>
+        <v>1628093.048</v>
       </c>
       <c r="I404">
-        <v>0.1027559013502036</v>
+        <v>0.1026976131403517</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -12413,25 +12413,25 @@
         <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D405" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E405" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F405">
-        <v>5150231.389</v>
+        <v>117507220.172</v>
       </c>
       <c r="G405">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H405">
-        <v>180399264.198</v>
+        <v>117507220.172</v>
       </c>
       <c r="I405">
-        <v>0.02854907092828984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -12442,25 +12442,25 @@
         <v>9</v>
       </c>
       <c r="C406" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D406" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E406" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="F406">
-        <v>23417565.905</v>
+        <v>19603080292.375</v>
       </c>
       <c r="G406">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H406">
-        <v>279113670.574</v>
+        <v>27481273609.394</v>
       </c>
       <c r="I406">
-        <v>0.08389974542214843</v>
+        <v>0.7133250289271172</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -12471,25 +12471,25 @@
         <v>9</v>
       </c>
       <c r="C407" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D407" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E407" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F407">
-        <v>187509746.358</v>
+        <v>625729106.5089999</v>
       </c>
       <c r="G407">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H407">
-        <v>225752716.974</v>
+        <v>27481273609.394</v>
       </c>
       <c r="I407">
-        <v>0.8305979607749109</v>
+        <v>0.02276929065962595</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -12500,25 +12500,25 @@
         <v>9</v>
       </c>
       <c r="C408" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D408" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E408" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F408">
-        <v>24569.373</v>
+        <v>1927004568.93</v>
       </c>
       <c r="G408">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H408">
-        <v>1628093.048</v>
+        <v>27481273609.394</v>
       </c>
       <c r="I408">
-        <v>0.01509088994033958</v>
+        <v>0.07012064274456649</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -12535,19 +12535,19 @@
         <v>29</v>
       </c>
       <c r="E409" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F409">
-        <v>966255813.104</v>
+        <v>555041994.9299999</v>
       </c>
       <c r="G409">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H409">
         <v>27481273609.394</v>
       </c>
       <c r="I409">
-        <v>0.03516051791623304</v>
+        <v>0.02019709867959935</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -12558,25 +12558,25 @@
         <v>9</v>
       </c>
       <c r="C410" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D410" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E410" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F410">
-        <v>12324658.553</v>
+        <v>966255813.104</v>
       </c>
       <c r="G410">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H410">
-        <v>378659045.398</v>
+        <v>27481273609.394</v>
       </c>
       <c r="I410">
-        <v>0.03254816886797417</v>
+        <v>0.03516051791623304</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -12587,25 +12587,25 @@
         <v>9</v>
       </c>
       <c r="C411" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E411" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="F411">
-        <v>2940847.277</v>
+        <v>187509746.358</v>
       </c>
       <c r="G411">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H411">
-        <v>1534274550.312</v>
+        <v>225752716.974</v>
       </c>
       <c r="I411">
-        <v>0.001916767293312639</v>
+        <v>0.8305979607749109</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -12616,25 +12616,25 @@
         <v>9</v>
       </c>
       <c r="C412" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D412" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E412" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F412">
-        <v>625729106.5089999</v>
+        <v>38242970.616</v>
       </c>
       <c r="G412">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H412">
-        <v>27481273609.394</v>
+        <v>225752716.974</v>
       </c>
       <c r="I412">
-        <v>0.02276929065962595</v>
+        <v>0.1694020392250891</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -12645,25 +12645,25 @@
         <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D413" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E413" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F413">
-        <v>193277442.347</v>
+        <v>284240578.703</v>
       </c>
       <c r="G413">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H413">
-        <v>1534274550.312</v>
+        <v>3050915978.135</v>
       </c>
       <c r="I413">
-        <v>0.1259731788601306</v>
+        <v>0.09316565278757823</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -12674,25 +12674,25 @@
         <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E414" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F414">
-        <v>29892383.907</v>
+        <v>313499621.277</v>
       </c>
       <c r="G414">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H414">
-        <v>1534274550.312</v>
+        <v>3050915978.135</v>
       </c>
       <c r="I414">
-        <v>0.01948307354829113</v>
+        <v>0.1027559013502036</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -12709,19 +12709,19 @@
         <v>39</v>
       </c>
       <c r="E415" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F415">
-        <v>422735784.299</v>
+        <v>281290382.371</v>
       </c>
       <c r="G415">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H415">
         <v>3050915978.135</v>
       </c>
       <c r="I415">
-        <v>0.1385602839700013</v>
+        <v>0.09219866570791324</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -12767,19 +12767,19 @@
         <v>39</v>
       </c>
       <c r="E417" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F417">
-        <v>284240578.703</v>
+        <v>422735784.299</v>
       </c>
       <c r="G417">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H417">
         <v>3050915978.135</v>
       </c>
       <c r="I417">
-        <v>0.09316565278757821</v>
+        <v>0.1385602839700014</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -12790,25 +12790,25 @@
         <v>9</v>
       </c>
       <c r="C418" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D418" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E418" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F418">
-        <v>1927004568.93</v>
+        <v>87900943.13500001</v>
       </c>
       <c r="G418">
         <v>2</v>
       </c>
       <c r="H418">
-        <v>27481273609.394</v>
+        <v>336748096.072</v>
       </c>
       <c r="I418">
-        <v>0.07012064274456649</v>
+        <v>0.261028775397162</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -12825,19 +12825,19 @@
         <v>36</v>
       </c>
       <c r="E419" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="F419">
-        <v>206519267.352</v>
+        <v>15008544.224</v>
       </c>
       <c r="G419">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H419">
         <v>336748096.072</v>
       </c>
       <c r="I419">
-        <v>0.613275233805165</v>
+        <v>0.04456905443287503</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -12848,25 +12848,25 @@
         <v>9</v>
       </c>
       <c r="C420" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D420" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E420" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F420">
-        <v>43292146.129</v>
+        <v>15329355.051</v>
       </c>
       <c r="G420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H420">
-        <v>180399264.198</v>
+        <v>336748096.072</v>
       </c>
       <c r="I420">
-        <v>0.2399796158895861</v>
+        <v>0.04552172745684191</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -12877,25 +12877,25 @@
         <v>9</v>
       </c>
       <c r="C421" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D421" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E421" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F421">
-        <v>117161042.177</v>
+        <v>11989986.31</v>
       </c>
       <c r="G421">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H421">
-        <v>180399264.198</v>
+        <v>336748096.072</v>
       </c>
       <c r="I421">
-        <v>0.6494541022540318</v>
+        <v>0.03560520890795601</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -12906,25 +12906,25 @@
         <v>9</v>
       </c>
       <c r="C422" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D422" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E422" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F422">
-        <v>100217986.398</v>
+        <v>206519267.352</v>
       </c>
       <c r="G422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H422">
-        <v>1534274550.312</v>
+        <v>336748096.072</v>
       </c>
       <c r="I422">
-        <v>0.06531946083419053</v>
+        <v>0.613275233805165</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -12941,19 +12941,19 @@
         <v>31</v>
       </c>
       <c r="E423" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F423">
-        <v>1205520883.828</v>
+        <v>193277442.347</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H423">
         <v>1534274550.312</v>
       </c>
       <c r="I423">
-        <v>0.7857269636538343</v>
+        <v>0.1259731788601306</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -12964,25 +12964,25 @@
         <v>9</v>
       </c>
       <c r="C424" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D424" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E424" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F424">
-        <v>281290382.371</v>
+        <v>29892383.907</v>
       </c>
       <c r="G424">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H424">
-        <v>3050915978.135</v>
+        <v>1534274550.312</v>
       </c>
       <c r="I424">
-        <v>0.09219866570791323</v>
+        <v>0.01948307354829113</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -12993,25 +12993,25 @@
         <v>9</v>
       </c>
       <c r="C425" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D425" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E425" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F425">
-        <v>15329355.051</v>
+        <v>100217986.398</v>
       </c>
       <c r="G425">
         <v>3</v>
       </c>
       <c r="H425">
-        <v>336748096.072</v>
+        <v>1534274550.312</v>
       </c>
       <c r="I425">
-        <v>0.04552172745684191</v>
+        <v>0.06531946083419055</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -13022,25 +13022,25 @@
         <v>9</v>
       </c>
       <c r="C426" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D426" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E426" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F426">
-        <v>29597061.895</v>
+        <v>1205520883.828</v>
       </c>
       <c r="G426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H426">
-        <v>279113670.574</v>
+        <v>1534274550.312</v>
       </c>
       <c r="I426">
-        <v>0.1060394563767993</v>
+        <v>0.7857269636538344</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -13051,25 +13051,25 @@
         <v>9</v>
       </c>
       <c r="C427" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D427" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E427" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F427">
-        <v>117507220.172</v>
+        <v>2940847.277</v>
       </c>
       <c r="G427">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H427">
-        <v>117507220.172</v>
+        <v>1534274550.312</v>
       </c>
       <c r="I427">
-        <v>1</v>
+        <v>0.00191676729331264</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -13080,25 +13080,25 @@
         <v>9</v>
       </c>
       <c r="C428" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D428" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E428" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F428">
-        <v>26396141.623</v>
+        <v>23617390.279</v>
       </c>
       <c r="G428">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H428">
-        <v>279113670.574</v>
+        <v>378659045.398</v>
       </c>
       <c r="I428">
-        <v>0.09457129623467055</v>
+        <v>0.06237112401256992</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -13109,25 +13109,25 @@
         <v>9</v>
       </c>
       <c r="C429" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D429" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E429" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="F429">
-        <v>38242970.616</v>
+        <v>90359687.90000001</v>
       </c>
       <c r="G429">
         <v>2</v>
       </c>
       <c r="H429">
-        <v>225752716.974</v>
+        <v>378659045.398</v>
       </c>
       <c r="I429">
-        <v>0.1694020392250891</v>
+        <v>0.2386307391786323</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -13138,25 +13138,25 @@
         <v>9</v>
       </c>
       <c r="C430" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D430" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E430" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F430">
-        <v>9728690.687000001</v>
+        <v>216060382.774</v>
       </c>
       <c r="G430">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H430">
-        <v>180399264.198</v>
+        <v>378659045.398</v>
       </c>
       <c r="I430">
-        <v>0.05392866057547843</v>
+        <v>0.5705934808632493</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -13173,19 +13173,19 @@
         <v>33</v>
       </c>
       <c r="E431" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F431">
-        <v>216060382.774</v>
+        <v>6593559.103</v>
       </c>
       <c r="G431">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H431">
         <v>378659045.398</v>
       </c>
       <c r="I431">
-        <v>0.5705934808632493</v>
+        <v>0.01741291851636519</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -13202,19 +13202,19 @@
         <v>33</v>
       </c>
       <c r="E432" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F432">
-        <v>6593559.103</v>
+        <v>12324658.553</v>
       </c>
       <c r="G432">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H432">
         <v>378659045.398</v>
       </c>
       <c r="I432">
-        <v>0.01741291851636519</v>
+        <v>0.03254816886797417</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -13225,25 +13225,25 @@
         <v>9</v>
       </c>
       <c r="C433" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D433" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E433" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F433">
-        <v>555041994.9299999</v>
+        <v>61287648.919</v>
       </c>
       <c r="G433">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H433">
-        <v>27481273609.394</v>
+        <v>61287648.919</v>
       </c>
       <c r="I433">
-        <v>0.02019709867959935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -13254,25 +13254,25 @@
         <v>9</v>
       </c>
       <c r="C434" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D434" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E434" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F434">
-        <v>23617390.279</v>
+        <v>3691944.174</v>
       </c>
       <c r="G434">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H434">
-        <v>378659045.398</v>
+        <v>180399264.198</v>
       </c>
       <c r="I434">
-        <v>0.06237112401256992</v>
+        <v>0.02046540594504781</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -13283,25 +13283,25 @@
         <v>9</v>
       </c>
       <c r="C435" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D435" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E435" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F435">
-        <v>48512353.738</v>
+        <v>117161042.177</v>
       </c>
       <c r="G435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435">
-        <v>279113670.574</v>
+        <v>180399264.198</v>
       </c>
       <c r="I435">
-        <v>0.1738085907373647</v>
+        <v>0.6494541022540318</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -13312,25 +13312,25 @@
         <v>9</v>
       </c>
       <c r="C436" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D436" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E436" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F436">
-        <v>11989986.31</v>
+        <v>5150231.389</v>
       </c>
       <c r="G436">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H436">
-        <v>336748096.072</v>
+        <v>180399264.198</v>
       </c>
       <c r="I436">
-        <v>0.03560520890795601</v>
+        <v>0.02854907092828984</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -13341,25 +13341,25 @@
         <v>9</v>
       </c>
       <c r="C437" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D437" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E437" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F437">
-        <v>167201.27</v>
+        <v>9728690.687000001</v>
       </c>
       <c r="G437">
         <v>3</v>
       </c>
       <c r="H437">
-        <v>1628093.048</v>
+        <v>180399264.198</v>
       </c>
       <c r="I437">
-        <v>0.1026976131403517</v>
+        <v>0.05392866057547843</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -13370,25 +13370,25 @@
         <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D438" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E438" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F438">
-        <v>82147.266</v>
+        <v>43292146.129</v>
       </c>
       <c r="G438">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H438">
-        <v>1628093.048</v>
+        <v>180399264.198</v>
       </c>
       <c r="I438">
-        <v>0.05045612479023374</v>
+        <v>0.2399796158895861</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -13399,25 +13399,25 @@
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D439" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E439" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F439">
-        <v>267354.818</v>
+        <v>23417565.905</v>
       </c>
       <c r="G439">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H439">
-        <v>1628093.048</v>
+        <v>279113670.574</v>
       </c>
       <c r="I439">
-        <v>0.1642134755924589</v>
+        <v>0.08389974542214843</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -13428,25 +13428,25 @@
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D440" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E440" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F440">
-        <v>1074542.528</v>
+        <v>26396141.623</v>
       </c>
       <c r="G440">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H440">
-        <v>1628093.048</v>
+        <v>279113670.574</v>
       </c>
       <c r="I440">
-        <v>0.6600006856610569</v>
+        <v>0.09457129623467055</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -13457,25 +13457,25 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D441" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E441" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F441">
-        <v>87900943.13500001</v>
+        <v>48512353.738</v>
       </c>
       <c r="G441">
         <v>2</v>
       </c>
       <c r="H441">
-        <v>336748096.072</v>
+        <v>279113670.574</v>
       </c>
       <c r="I441">
-        <v>0.261028775397162</v>
+        <v>0.1738085907373647</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -13486,25 +13486,25 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D442" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E442" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F442">
-        <v>15008544.224</v>
+        <v>59315054.692</v>
       </c>
       <c r="G442">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H442">
-        <v>336748096.072</v>
+        <v>279113670.574</v>
       </c>
       <c r="I442">
-        <v>0.04456905443287503</v>
+        <v>0.212512180324303</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -13515,25 +13515,25 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D443" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E443" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F443">
-        <v>3691944.174</v>
+        <v>29597061.895</v>
       </c>
       <c r="G443">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H443">
-        <v>180399264.198</v>
+        <v>279113670.574</v>
       </c>
       <c r="I443">
-        <v>0.02046540594504781</v>
+        <v>0.1060394563767993</v>
       </c>
     </row>
     <row r="444" spans="1:9">
